--- a/research/vatClass_confusion_stats.xlsx
+++ b/research/vatClass_confusion_stats.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>A</t>
   </si>
@@ -56,13 +56,25 @@
   </si>
   <si>
     <t>bis (tx)</t>
+  </si>
+  <si>
+    <t>percentage</t>
+  </si>
+  <si>
+    <t>How often appears:</t>
+  </si>
+  <si>
+    <t>counted "a" and "b" for all müller</t>
+  </si>
+  <si>
+    <t>counted "A" and "B" for edeka up to 270</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,8 +90,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,6 +108,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -116,18 +147,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
+    <cellStyle name="20% - Accent3" xfId="3" builtinId="38"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
@@ -431,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,210 +479,345 @@
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C2" s="3">
+        <v>769</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
+        <v>203</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
+        <v>1605</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1">
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2">
         <v>5</v>
       </c>
-      <c r="F1" s="1">
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="2">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1">
+      <c r="M8" s="2">
         <v>4</v>
       </c>
-      <c r="I1" s="1">
+      <c r="N8" s="2">
         <v>1</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1">
+      <c r="P8" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C9" s="4">
         <v>21</v>
       </c>
-      <c r="D2">
+      <c r="D9">
+        <f>100*C9/(C2+C9+E9+G9+I9+L9+M9+N9+O9+P9)</f>
+        <v>2.4822695035460991</v>
+      </c>
+      <c r="E9" s="4">
         <v>50</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="F9">
+        <f>100*E9/(C2+C9+E9+G9+I9+L9+M9+N9+O9+P9)</f>
+        <v>5.9101654846335698</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>100*G9/(C2+C9+E9+G9+I9+L9+M9+N9+O9+P9)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
         <v>5</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
+      <c r="J9">
+        <f>100*I9/(C2+C9+E9+G9+I9+L9+M9+N9+O9+P9)</f>
+        <v>0.59101654846335694</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C10" s="4">
         <v>54</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
+      <c r="D10">
+        <f>100*C10/(D3+C10+E10+G10+I10+L10+M10+N10+O10+P10)</f>
+        <v>19.852941176470587</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>100*E10/(D3+C10+E10+G10+I10+L10+M10+N10+O10+P10)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
         <v>12</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
+      <c r="H10">
+        <f>100*G10/(D3+C10+E10+G10+I10+L10+M10+N10+O10+P10)</f>
+        <v>4.4117647058823533</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f>100*I10/(D3+C10+E10+G10+I10+L10+M10+N10+O10+P10)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="O10" s="4">
         <v>1</v>
       </c>
-      <c r="K3">
+      <c r="P10" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f>100*C11/(E4+C11+E11+G11+I11+L11+M11+N11+O11+P11)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>100*E11/(E4+C11+E11+G11+I11+L11+M11+N11+O11+P11)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>100*G11/(E4+C11+E11+G11+I11+L11+M11+N11+O11+P11)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f>100*I11/(E4+C11+E11+G11+I11+L11+M11+N11+O11+P11)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f>100*C12/(F5+C12+E12+G12+I12+L12+M12+N12+O12+P12)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>100*E12/(F5+C12+E12+G12+I12+L12+M12+N12+O12+P12)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f ca="1">100*H12/(F5+C12+E12+G12+I12+L12+M12+N12+O12+P12)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
         <v>3</v>
       </c>
-      <c r="G5">
+      <c r="J12">
+        <f>100*I12/(F5+C12+E12+G12+I12+L12+M12+N12+O12+P12)</f>
+        <v>0.53191489361702127</v>
+      </c>
+      <c r="L12" s="4">
         <v>1</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B19" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C19" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D19" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C20">
         <v>2</v>
       </c>
-      <c r="D9">
+      <c r="D20">
         <v>286</v>
       </c>
-      <c r="E9">
+      <c r="E20">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C21">
         <v>46</v>
       </c>
-      <c r="D10">
+      <c r="D21">
         <v>270</v>
       </c>
-      <c r="E10">
+      <c r="E21">
         <v>86</v>
       </c>
     </row>
